--- a/tests/data/filled_templates/bodem_template_full.xlsx
+++ b/tests/data/filled_templates/bodem_template_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RubenVijverman\PycharmProjects\xls2xml\tests\data\filled_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C694F1F9-9D2D-41CF-A3D7-263BADA0ABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C9B901-CDC7-4033-A7E0-E4DC4974FA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14910" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codelijsten" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11901" uniqueCount="2284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12073" uniqueCount="2351">
   <si>
     <t>naam</t>
   </si>
@@ -6879,6 +6879,207 @@
   </si>
   <si>
     <t>CN_247121</t>
+  </si>
+  <si>
+    <t>CN_236084_2021</t>
+  </si>
+  <si>
+    <t>71W</t>
+  </si>
+  <si>
+    <t>2021-033298</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/bodemlocatie/2021-033298</t>
+  </si>
+  <si>
+    <t>CN_236084</t>
+  </si>
+  <si>
+    <t>KART_OPP_085E/010</t>
+  </si>
+  <si>
+    <t>Centrum voor Grondonderzoek (C.V.G.)</t>
+  </si>
+  <si>
+    <t>85E</t>
+  </si>
+  <si>
+    <t>1972-016080</t>
+  </si>
+  <si>
+    <t>Bodemkaartblad 085E Belgische bodemkartering</t>
+  </si>
+  <si>
+    <t>Bodemprofielen en oppervlaktemonsters Belgische bodemkartering</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/bodemlocatie/1972-016080</t>
+  </si>
+  <si>
+    <t>ARCH_2017D9_P2</t>
+  </si>
+  <si>
+    <t>2017-018269</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/bodemlocatie/2017-018269</t>
+  </si>
+  <si>
+    <t>GATE</t>
+  </si>
+  <si>
+    <t>Polder-Leie Interfluvium</t>
+  </si>
+  <si>
+    <t>67E</t>
+  </si>
+  <si>
+    <t>Vergauwe</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
+    <t>Vooronderzoek Hooglede Hooglede Akkerstraat</t>
+  </si>
+  <si>
+    <t>CN_273887</t>
+  </si>
+  <si>
+    <t>2021-007136</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/bodemsite/2021-007136</t>
+  </si>
+  <si>
+    <t>Curieuzeneuzen: meetsite in een particuliere tuin</t>
+  </si>
+  <si>
+    <t>EPSG:31370</t>
+  </si>
+  <si>
+    <t>POLYGON ((158371.52012039005 190573.03312632535, 158371.218583494 190574.74322704197, 158370.35034260564 190576.24706437378, 158369.02012039005 190577.36325334426, 158367.3883612784 190577.9571650904, 158365.6518795017 190577.9571650904, 158364.02012039005 190577.36325334426, 158362.68989817446 190576.24706437378, 158361.8216572861 190574.74322704197, 158361.52012039005 190573.03312632535, 158361.8216572861 190571.32302560873, 158362.68989817446 190569.81918827692, 158364.02012039005 190568.70299930644, 158365.6518795017 190568.1090875603, 158367.3883612784 190568.1090875603, 158369.02012039005 190568.70299930644, 158370.35034260564 190569.81918827692, 158371.218583494 190571.32302560873, 158371.52012039005 190573.03312632535))</t>
+  </si>
+  <si>
+    <t>Mechelen_Zennegat</t>
+  </si>
+  <si>
+    <t>2012-000141</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/bodemsite/2012-000141</t>
+  </si>
+  <si>
+    <t>Gecontroleerd OverstromingsGebied (GOG) wordt een zone van 5,1 ha afgegraven in functie van klei- en zandwinning voor de constructie van nieuwe dijken.</t>
+  </si>
+  <si>
+    <t>POLYGON ((154830.97198797285 193637.22601726578, 154830.9851807115 193637.03128543356, 154830.96029617082 193636.83770006616, 154830.8982823158 193636.65263570813, 154830.80150153537 193636.48314230007, 154830.67364064837 193636.33567661454, 154830.51957045583 193636.2158562882, 154830.34516019002 193636.1282458207, 154830.1570539289 193636.07618269202, 154829.96241749305 193636.0616502228, 154829.76866546687 193636.08520202074, 154829.5831787437 193636.14594089103, 154829.413023354 193636.24155301467, 154829.26468128816 193636.36839609226, 154829.14380356818 193636.5216380958, 154829.05499497458 193636.69544134242, 154829.00163862942 193636.8831848783, 154622.53551740455 194776.98652229193, 154622.51964028625 194777.18070726248, 154622.541718201 194777.3742852864, 154622.60091307372 194777.55990816408, 154622.6949778738 194777.73052967226, 154622.82034191216 194777.87967303803, 154622.97224638428 194778.00167679627, 154623.1449250137 194778.09190969824, 154623.33182293948 194778.14694651333, 154623.52584553766 194778.16469805033, 154623.7196277326 194778.1444904629, 154623.90581357435 194778.0870908288, 154624.07733546966 194777.9946780315, 154624.22768246697 194777.87076005028, 154624.35114741145 194777.72004079752, 154624.44304358793 194777.54824155883, 154624.49988262806 194777.36188381366, 154719.56998724936 194304.64329769663, 154719.57597136928 194304.6107685624, 154830.97198797285 193637.22601726578))</t>
+  </si>
+  <si>
+    <t>Waasmunster_Aquafintracé</t>
+  </si>
+  <si>
+    <t>2011-000166</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/bodemsite/2011-000166</t>
+  </si>
+  <si>
+    <t>Het onderzoeksgebied situeert zich op het grondgebied van Waasmunster en Temse in Oost-Vlaanderen: in fase 1 loopt het Aquafintraject, van oost naar west, ten zuiden van de dorpskommen van Elversele (deelgemeente van Temse) en Sombeke (deelgemeente van Waasmunster). In fase 2 zet dit traject zijn weg verder westwaarts om te eindigen ten westen van de dorpskern van Waasmunster zelf. Langsheen dit O-W traject werd een aantal verschillende topografische en bodemkundige landschappen doorsneden. De aanwezigheid van enerzijds de Wase cuesta en anderzijds de Durmevallei in deze zone heeft het archeologisch onderzoek en de resultaten ervan sterk bepaald.</t>
+  </si>
+  <si>
+    <t>POLYGON ((132134.61732395104 198649.48128564388, 132134.4403315343 198649.40028303594, 132134.25099991466 198649.35510255478, 132134.0565024389 198649.3474559867, 126994.37323466316 198948.73226868632, 126994.16867351829 198948.7657022492, 126993.97539929634 198948.8405897665, 126993.80171565029 198948.95371384092, 126993.65508456193 198949.10021431546, 126993.54180575228 198949.27379708074, 126993.46674602617 198949.46700448907, 125954.71368376697 202751.17017132035, 125954.68081078662 202751.36325646268, 125954.68620489258 202751.55904565708, 125954.72965915343 202751.7500279396, 125954.80950655484 202751.92887675145, 125954.92268395051 202752.08873100425, 125955.06484957202 202752.22345828835, 125955.23054959 202752.3278901277, 125955.41342733667 202752.39802025526, 128295.24239303591 203395.17156045127, 128295.45047086984 203395.20566804122, 128295.66107483016 203395.19538774164, 128295.86484152533 203395.1411766117, 128296.05271154661 203395.04544486268, 128296.21633224684 203394.91244870063, 132647.41698697346 199019.78358355083, 132647.53511292167 199019.64037159804, 132647.62473181123 199019.4777928242, 132647.68275507021 199019.30145024718, 132647.70718301967 199019.11742123222, 132647.69717378932 199018.93204804548, 132647.6530723313 199018.75171927776, 132647.57639853194 199018.5826496721, 132647.4697948313 199018.4306659425, 132528.62513000553 198878.65208081773, 132528.50475868097 198878.53269312705, 132528.36594951618 198878.43535509624, 132134.61732395104 198649.48128564388))</t>
+  </si>
+  <si>
+    <t>2022-005916</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/bodemsite/2022-005916</t>
+  </si>
+  <si>
+    <t>POLYGON ((120857.27259444058 174472.80290008243, 120856.9710575445 174474.51300079905, 120856.10281665617 174476.01683813086, 120854.77259444058 174477.13302710134, 120853.14083532892 174477.72693884748, 120851.40435355225 174477.72693884748, 120849.77259444058 174477.13302710134, 120848.44237222499 174476.01683813086, 120847.57413133666 174474.51300079905, 120847.27259444058 174472.80290008243, 120847.57413133666 174471.0927993658, 120848.44237222499 174469.588962034, 120849.77259444058 174468.47277306352, 120851.40435355225 174467.87886131738, 120853.14083532892 174467.87886131738, 120854.77259444058 174468.47277306352, 120856.10281665617 174469.588962034, 120856.9710575445 174471.0927993658, 120857.27259444058 174472.80290008243))</t>
+  </si>
+  <si>
+    <t>Curieuzeneuzen in de tuin 2022</t>
+  </si>
+  <si>
+    <t>Opgrimbie_zandgroeve</t>
+  </si>
+  <si>
+    <t>2017-000028</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/bodemsite/2017-000028</t>
+  </si>
+  <si>
+    <t>zandgroeve</t>
+  </si>
+  <si>
+    <t>POLYGON ((237235.01126406973 185819.7939227116, 237234.8956491486 185819.95223452165, 237234.81314083774 185820.13005976687, 237234.76690988528 185820.3205647228, 237234.7587329208 185820.5164283908, 237234.7889241805 185820.71012383996, 237234.85632343113 185820.89420746284, 237234.95834055732 185821.06160502898, 237235.09105509814 185821.20588354385, 237235.2493669082 185821.321498465, 237235.4271921534 185821.40400677585, 237235.61769710932 185821.4502377283, 237235.81356077734 185821.45841469278, 237236.0072562265 185821.4282234331, 237236.19133984938 185821.36082418245, 237236.35873741552 185821.25880705626, 237236.5030159304 185821.12609251545, 239289.01069043178 183522.74631114726, 239289.12630535293 183522.5879993372, 239289.20881366378 183522.410174092, 239289.25504461623 183522.21966913607, 239289.2632215807 183522.02380546805, 239289.23303032102 183521.8301100189, 239289.16563107038 183521.64602639602, 239289.0636139442 183521.47862882988, 239288.93089940338 183521.334350315, 239288.77258759332 183521.21873539386, 239288.5947623481 183521.136227083, 239288.4042573922 183521.08999613055, 239288.20839372417 183521.08181916608, 239288.01469827502 183521.11201042577, 239287.83061465214 183521.1794096764, 239287.663217086 183521.2814268026, 239287.51893857113 183521.4141413434, 237235.01126406973 185819.7939227116))</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/bodem-client/proxy/bijlagen/5518/inhoud</t>
+  </si>
+  <si>
+    <t>OE_KUNST_profiel_Opgrimbie_overzicht</t>
+  </si>
+  <si>
+    <t>Vijverman, Ruben (UGent)</t>
+  </si>
+  <si>
+    <t>A0057109</t>
+  </si>
+  <si>
+    <t>2015-211848</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/bodemmonster/2015-211848</t>
+  </si>
+  <si>
+    <t>Bodemkundige Dienst van België</t>
+  </si>
+  <si>
+    <t>Edelmanboor</t>
+  </si>
+  <si>
+    <t>VMM_INF_51</t>
+  </si>
+  <si>
+    <t>Bodem_fysisch_vocht</t>
+  </si>
+  <si>
+    <t>Nee</t>
+  </si>
+  <si>
+    <t>2019-000878</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/bodemobservatie/2019-000878</t>
+  </si>
+  <si>
+    <t>0420.415.024</t>
+  </si>
+  <si>
+    <t>Bodem_fysisch_textuur</t>
+  </si>
+  <si>
+    <t>2019-994756</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/bodemobservatie/2019-994756</t>
+  </si>
+  <si>
+    <t>KART_OPP_071E/100</t>
+  </si>
+  <si>
+    <t>S - Lemig zand</t>
+  </si>
+  <si>
+    <t>2019-000894</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/bodemobservatie/2019-000894</t>
   </si>
 </sst>
 </file>
@@ -6902,10 +7103,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -6964,8 +7167,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6985,7 +7189,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6993,7 +7197,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -40645,18 +40850,46 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="DO2:DP2"/>
-    <mergeCell ref="DI1:DP1"/>
-    <mergeCell ref="DG2:DH2"/>
-    <mergeCell ref="CW1:DH1"/>
-    <mergeCell ref="DI2:DJ2"/>
-    <mergeCell ref="DK2:DL2"/>
-    <mergeCell ref="DM2:DN2"/>
-    <mergeCell ref="CW2:CX2"/>
-    <mergeCell ref="CY2:CZ2"/>
-    <mergeCell ref="DA2:DB2"/>
-    <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="DE2:DF2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AK1:AR1"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="AS1:BT1"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
     <mergeCell ref="CO2:CP2"/>
     <mergeCell ref="CQ2:CR2"/>
     <mergeCell ref="CS2:CT2"/>
@@ -40672,46 +40905,18 @@
     <mergeCell ref="BY2:BZ2"/>
     <mergeCell ref="CA2:CB2"/>
     <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="AS1:BT1"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AK1:AR1"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="DO2:DP2"/>
+    <mergeCell ref="DI1:DP1"/>
+    <mergeCell ref="DG2:DH2"/>
+    <mergeCell ref="CW1:DH1"/>
+    <mergeCell ref="DI2:DJ2"/>
+    <mergeCell ref="DK2:DL2"/>
+    <mergeCell ref="DM2:DN2"/>
+    <mergeCell ref="CW2:CX2"/>
+    <mergeCell ref="CY2:CZ2"/>
+    <mergeCell ref="DA2:DB2"/>
+    <mergeCell ref="DC2:DD2"/>
+    <mergeCell ref="DE2:DF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="60">
@@ -40781,10 +40986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DL11"/>
+  <dimension ref="A1:DL16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CT9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CW59" sqref="CW59"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40792,7 +40997,7 @@
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
     <col min="5" max="6" width="44.6640625" customWidth="1"/>
     <col min="7" max="8" width="72.6640625" customWidth="1"/>
     <col min="9" max="9" width="100.6640625" customWidth="1"/>
@@ -42430,10 +42635,10 @@
       <c r="H10" t="s">
         <v>194</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" t="s">
         <v>2274</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10">
         <v>63.33</v>
       </c>
       <c r="S10" t="s">
@@ -42445,6 +42650,8 @@
       <c r="U10" t="s">
         <v>2275</v>
       </c>
+      <c r="AD10"/>
+      <c r="BD10"/>
       <c r="BE10" t="s">
         <v>230</v>
       </c>
@@ -42478,35 +42685,318 @@
       <c r="CM10" t="s">
         <v>2280</v>
       </c>
+      <c r="DB10"/>
       <c r="DC10" t="s">
         <v>2281</v>
       </c>
+      <c r="DE10"/>
       <c r="DL10" t="s">
         <v>2283</v>
       </c>
     </row>
     <row r="11" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="AD11"/>
+      <c r="BD11"/>
+      <c r="DB11"/>
       <c r="DC11" t="s">
         <v>2282</v>
       </c>
+      <c r="DE11"/>
+    </row>
+    <row r="12" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44289</v>
+      </c>
+      <c r="D12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12">
+        <v>118635.62</v>
+      </c>
+      <c r="F12">
+        <v>178429.49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2274</v>
+      </c>
+      <c r="R12">
+        <v>36.65</v>
+      </c>
+      <c r="S12" t="s">
+        <v>188</v>
+      </c>
+      <c r="T12" t="s">
+        <v>210</v>
+      </c>
+      <c r="U12" t="s">
+        <v>2275</v>
+      </c>
+      <c r="AD12"/>
+      <c r="BD12"/>
+      <c r="BE12" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>2276</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>2277</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>2285</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>2279</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>2286</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>2287</v>
+      </c>
+      <c r="BM12" s="2">
+        <v>45198</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>246</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>2280</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>2280</v>
+      </c>
+      <c r="DB12"/>
+      <c r="DC12" t="s">
+        <v>2281</v>
+      </c>
+      <c r="DE12"/>
+      <c r="DL12" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="DC13" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="2">
+        <v>26299</v>
+      </c>
+      <c r="D14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14">
+        <v>111017</v>
+      </c>
+      <c r="F14">
+        <v>177188</v>
+      </c>
+      <c r="G14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2290</v>
+      </c>
+      <c r="R14">
+        <v>-9999</v>
+      </c>
+      <c r="S14" t="s">
+        <v>189</v>
+      </c>
+      <c r="T14" t="s">
+        <v>216</v>
+      </c>
+      <c r="U14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>2276</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>2277</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>2291</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>2292</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>2295</v>
+      </c>
+      <c r="BM14" s="2">
+        <v>43750</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>233</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>246</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>2290</v>
+      </c>
+      <c r="DC14" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="DC15" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="2">
+        <v>42846</v>
+      </c>
+      <c r="D16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16">
+        <v>58987.74</v>
+      </c>
+      <c r="F16">
+        <v>185777.55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2299</v>
+      </c>
+      <c r="R16">
+        <v>32.01</v>
+      </c>
+      <c r="S16" t="s">
+        <v>188</v>
+      </c>
+      <c r="T16" t="s">
+        <v>211</v>
+      </c>
+      <c r="U16" t="s">
+        <v>2299</v>
+      </c>
+      <c r="AE16">
+        <v>58988.05</v>
+      </c>
+      <c r="AF16">
+        <v>185776.38</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>2299</v>
+      </c>
+      <c r="AR16">
+        <v>31.99</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>2299</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>2300</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>2277</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>2301</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>2297</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>2298</v>
+      </c>
+      <c r="BM16" s="2">
+        <v>44622</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>2302</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>2303</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>2299</v>
+      </c>
+      <c r="DC16" t="s">
+        <v>2304</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="CW3:DA3"/>
-    <mergeCell ref="CV2:DB2"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DD2:DK2"/>
-    <mergeCell ref="CN5:CP5"/>
-    <mergeCell ref="CM4:CP4"/>
-    <mergeCell ref="CQ4:CU4"/>
-    <mergeCell ref="CM3:CU3"/>
-    <mergeCell ref="CH2:CU2"/>
-    <mergeCell ref="CA4:CE4"/>
-    <mergeCell ref="BW3:CE3"/>
-    <mergeCell ref="BR2:CE2"/>
-    <mergeCell ref="CF2:CG2"/>
-    <mergeCell ref="CH3:CL3"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="U5:AC5"/>
+    <mergeCell ref="R4:AD4"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AI5:AQ5"/>
+    <mergeCell ref="AE4:AQ4"/>
+    <mergeCell ref="AV7:AX7"/>
+    <mergeCell ref="AU6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="AU5:BC5"/>
+    <mergeCell ref="AR4:BD4"/>
     <mergeCell ref="E2:BJ2"/>
     <mergeCell ref="BK2:BL2"/>
     <mergeCell ref="BO2:BP2"/>
@@ -42515,29 +43005,24 @@
     <mergeCell ref="BW4:BZ4"/>
     <mergeCell ref="E3:AD3"/>
     <mergeCell ref="AE3:BD3"/>
-    <mergeCell ref="AV7:AX7"/>
-    <mergeCell ref="AU6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="AU5:BC5"/>
-    <mergeCell ref="AR4:BD4"/>
-    <mergeCell ref="AJ7:AL7"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AI5:AQ5"/>
-    <mergeCell ref="AE4:AQ4"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="U5:AC5"/>
-    <mergeCell ref="R4:AD4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="I5:Q5"/>
-    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="CA4:CE4"/>
+    <mergeCell ref="BW3:CE3"/>
+    <mergeCell ref="BR2:CE2"/>
+    <mergeCell ref="CF2:CG2"/>
+    <mergeCell ref="CH3:CL3"/>
+    <mergeCell ref="CN5:CP5"/>
+    <mergeCell ref="CM4:CP4"/>
+    <mergeCell ref="CQ4:CU4"/>
+    <mergeCell ref="CM3:CU3"/>
+    <mergeCell ref="CH2:CU2"/>
+    <mergeCell ref="CW3:DA3"/>
+    <mergeCell ref="CV2:DB2"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="DD2:DK2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C1000001 DE10:DE1000001 DB10:DB1000001 BM10:BM1000001 BD10:BD1000001 AD10:AD1000001" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD10:AD1000001 DE10:DE1000001 DB10:DB1000001 BM12:BM1000001 BD10:BD1000001 C10:C11 BM10 C13 C15:C1000001" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -42567,7 +43052,7 @@
           <x14:formula1>
             <xm:f>Codelijsten!$A$4:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B10:B1000001</xm:sqref>
+          <xm:sqref>B10:B11 B13:B1000001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
@@ -42579,19 +43064,19 @@
           <x14:formula1>
             <xm:f>Codelijsten!$E$4:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G10:G1000001</xm:sqref>
+          <xm:sqref>G10:G11 G13:G1000001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Codelijsten!$G$4:$G$17</xm:f>
           </x14:formula1>
-          <xm:sqref>H10:H1000001</xm:sqref>
+          <xm:sqref>H10:H11 H13:H1000001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Codelijsten!$I$4:$I$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S10:S1000001</xm:sqref>
+          <xm:sqref>S10:S11 S13:S1000001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
@@ -42627,7 +43112,7 @@
           <x14:formula1>
             <xm:f>Codelijsten!$U$4:$U$18</xm:f>
           </x14:formula1>
-          <xm:sqref>BE10:BE1000001</xm:sqref>
+          <xm:sqref>BE10:BE11 BE13:BE1000001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000F000000}">
           <x14:formula1>
@@ -42645,7 +43130,7 @@
           <x14:formula1>
             <xm:f>Codelijsten!$AA$4:$AA$8</xm:f>
           </x14:formula1>
-          <xm:sqref>BQ10:BQ1000001</xm:sqref>
+          <xm:sqref>BQ10:BQ11 BQ13:BQ1000001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000012000000}">
           <x14:formula1>
@@ -42667,13 +43152,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AM7"/>
+  <dimension ref="A1:AM15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="AJ23" sqref="AJ23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="44.6640625" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" style="2" customWidth="1"/>
@@ -42708,13 +43197,13 @@
     <col min="33" max="33" width="44.6640625" style="2" customWidth="1"/>
     <col min="34" max="34" width="42.6640625" customWidth="1"/>
     <col min="35" max="35" width="48.6640625" customWidth="1"/>
-    <col min="36" max="36" width="40.6640625" customWidth="1"/>
+    <col min="36" max="36" width="62.88671875" customWidth="1"/>
     <col min="37" max="37" width="30.6640625" customWidth="1"/>
     <col min="38" max="38" width="40.6640625" customWidth="1"/>
     <col min="39" max="39" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -42833,7 +43322,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -42896,7 +43385,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
     </row>
-    <row r="3" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>91</v>
       </c>
@@ -42961,7 +43450,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="J4" s="5" t="s">
         <v>0</v>
       </c>
@@ -43018,7 +43507,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="O5" s="5" t="s">
         <v>0</v>
       </c>
@@ -43043,7 +43532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="P6" s="5" t="s">
         <v>14</v>
       </c>
@@ -43173,8 +43662,191 @@
         <v>161</v>
       </c>
     </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45198</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2308</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2309</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2310</v>
+      </c>
+      <c r="I8" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2305</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2313</v>
+      </c>
+      <c r="D10" s="2">
+        <v>41065</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2309</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2315</v>
+      </c>
+      <c r="I10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D11" s="2">
+        <v>40786</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2319</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2309</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2320</v>
+      </c>
+      <c r="I11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45198</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2308</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2309</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2323</v>
+      </c>
+      <c r="I12" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2283</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2283</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2327</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2328</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2309</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2329</v>
+      </c>
+      <c r="I15" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>2331</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>38861</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>2330</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>2332</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="O4:R4"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AJ3"/>
     <mergeCell ref="AF2:AM2"/>
@@ -43183,11 +43855,6 @@
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="Y3:AC3"/>
     <mergeCell ref="X2:AD2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="O4:R4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001 AD8:AD1000001 D8:E1000001" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -43197,8 +43864,10 @@
   <hyperlinks>
     <hyperlink ref="I7" location="'Codelijsten'!$AG$2" display="status" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="AL7" location="'Codelijsten'!$AI$2" display="bijlage-bijlage_type" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{110F9FBB-0E84-4786-B0BD-380C874D7016}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -43222,9 +43891,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BE8"/>
+  <dimension ref="A1:BE9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0"/>
+    <sheetView topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -43459,7 +44130,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>318</v>
       </c>
@@ -43552,7 +44223,7 @@
       <c r="BD2" s="8"/>
       <c r="BE2" s="8"/>
     </row>
-    <row r="3" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="D3" s="5" t="s">
         <v>164</v>
       </c>
@@ -43636,7 +44307,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
@@ -43721,7 +44392,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="F5" s="5" t="s">
         <v>0</v>
       </c>
@@ -43763,7 +44434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="Z6" s="5" t="s">
         <v>0</v>
       </c>
@@ -43788,7 +44459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:57" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="AA7" s="5" t="s">
         <v>14</v>
       </c>
@@ -43972,8 +44643,63 @@
         <v>161</v>
       </c>
     </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B9" s="2">
+        <v>42243</v>
+      </c>
+      <c r="C9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G9" t="s">
+        <v>363</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2334</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2335</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2336</v>
+      </c>
+      <c r="U9" t="s">
+        <v>246</v>
+      </c>
+      <c r="V9" t="s">
+        <v>2337</v>
+      </c>
+      <c r="X9">
+        <v>40</v>
+      </c>
+      <c r="Y9">
+        <v>80</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>2336</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="Z4:AH4"/>
     <mergeCell ref="AY3:AZ3"/>
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="AX2:BE2"/>
@@ -43982,17 +44708,6 @@
     <mergeCell ref="Z2:AN2"/>
     <mergeCell ref="AQ3:AU3"/>
     <mergeCell ref="AP2:AV2"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B1000001 AY9:AY1000001 AV9:AV1000001 AN9:AN1000001" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -44006,6 +44721,7 @@
     <hyperlink ref="BD8" location="'Codelijsten'!$AQ$2" display="bijlage-bijlage_type" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -44041,9 +44757,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BW8"/>
+  <dimension ref="A1:BW14"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="P14" sqref="P14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -44119,7 +44839,7 @@
     <col min="75" max="75" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:75" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>367</v>
       </c>
@@ -44346,7 +45066,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>367</v>
       </c>
@@ -44471,7 +45191,7 @@
       <c r="BV2" s="8"/>
       <c r="BW2" s="8"/>
     </row>
-    <row r="3" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>369</v>
       </c>
@@ -44576,7 +45296,7 @@
       <c r="BV3" s="8"/>
       <c r="BW3" s="8"/>
     </row>
-    <row r="4" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
       <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
@@ -44683,7 +45403,7 @@
       <c r="BV4" s="8"/>
       <c r="BW4" s="8"/>
     </row>
-    <row r="5" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
       <c r="H5" s="5" t="s">
         <v>0</v>
       </c>
@@ -44736,7 +45456,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
       <c r="K6" s="5" t="s">
         <v>0</v>
       </c>
@@ -44786,7 +45506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
       <c r="M7" s="5" t="s">
         <v>0</v>
       </c>
@@ -45018,14 +45738,226 @@
         <v>135</v>
       </c>
     </row>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>837</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E9" s="2">
+        <v>42264</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2338</v>
+      </c>
+      <c r="I9" t="s">
+        <v>363</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>2339</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1437</v>
+      </c>
+      <c r="W9" t="s">
+        <v>188</v>
+      </c>
+      <c r="X9" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>967</v>
+      </c>
+      <c r="AD9">
+        <v>42</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>2341</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>2342</v>
+      </c>
+      <c r="AQ9">
+        <v>40</v>
+      </c>
+      <c r="AR9">
+        <v>80</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>43503</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>246</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>2343</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="AC10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AD10">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="AC11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="AC12" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AD12">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B13">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E13" s="2">
+        <v>22282</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2347</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2347</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>2344</v>
+      </c>
+      <c r="W13" t="s">
+        <v>189</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>2345</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>2346</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>20</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>246</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E14" s="2">
+        <v>42243</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2338</v>
+      </c>
+      <c r="N14" t="s">
+        <v>363</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>2333</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>2344</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1466</v>
+      </c>
+      <c r="W14" t="s">
+        <v>188</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>2349</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>2350</v>
+      </c>
+      <c r="AQ14">
+        <v>40</v>
+      </c>
+      <c r="AR14">
+        <v>80</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>43503</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>246</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>2343</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>2336</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="BJ2:BW2"/>
-    <mergeCell ref="BJ3:BN3"/>
-    <mergeCell ref="BP5:BR5"/>
-    <mergeCell ref="BO4:BR4"/>
-    <mergeCell ref="BS4:BW4"/>
-    <mergeCell ref="BO3:BW3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="F2:P2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AG2:AM2"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AU3:AW3"/>
     <mergeCell ref="AZ5:BA5"/>
@@ -45034,17 +45966,12 @@
     <mergeCell ref="AZ4:BG4"/>
     <mergeCell ref="AX3:BI3"/>
     <mergeCell ref="AU2:BI2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AG2:AM2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="F2:P2"/>
+    <mergeCell ref="BJ2:BW2"/>
+    <mergeCell ref="BJ3:BN3"/>
+    <mergeCell ref="BP5:BR5"/>
+    <mergeCell ref="BO4:BR4"/>
+    <mergeCell ref="BS4:BW4"/>
+    <mergeCell ref="BO3:BW3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E1000001 AS9:AS1000001 AM9:AM1000001" xr:uid="{00000000-0002-0000-0400-000002000000}">
@@ -45165,7 +46092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CQ8"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -46501,26 +47430,14 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="CL4:CP4"/>
-    <mergeCell ref="CK3:CQ3"/>
-    <mergeCell ref="BQ2:CQ2"/>
-    <mergeCell ref="CC6:CE6"/>
-    <mergeCell ref="CB5:CE5"/>
-    <mergeCell ref="CF5:CJ5"/>
-    <mergeCell ref="CB4:CJ4"/>
-    <mergeCell ref="BW3:CJ3"/>
-    <mergeCell ref="BK4:BO4"/>
-    <mergeCell ref="BJ3:BP3"/>
-    <mergeCell ref="AI2:BP2"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV4:AZ4"/>
-    <mergeCell ref="BB6:BD6"/>
-    <mergeCell ref="BA5:BD5"/>
-    <mergeCell ref="BE5:BI5"/>
-    <mergeCell ref="BA4:BI4"/>
-    <mergeCell ref="AV3:BI3"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="B2:AH2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="AO5:AP5"/>
     <mergeCell ref="AO4:AQ4"/>
     <mergeCell ref="AO3:AR3"/>
@@ -46530,14 +47447,26 @@
     <mergeCell ref="AC4:AG4"/>
     <mergeCell ref="AB3:AH3"/>
     <mergeCell ref="N4:R4"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="B2:AH2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="BA5:BD5"/>
+    <mergeCell ref="BE5:BI5"/>
+    <mergeCell ref="BA4:BI4"/>
+    <mergeCell ref="AV3:BI3"/>
+    <mergeCell ref="BK4:BO4"/>
+    <mergeCell ref="BJ3:BP3"/>
+    <mergeCell ref="AI2:BP2"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV4:AZ4"/>
+    <mergeCell ref="CL4:CP4"/>
+    <mergeCell ref="CK3:CQ3"/>
+    <mergeCell ref="BQ2:CQ2"/>
+    <mergeCell ref="CC6:CE6"/>
+    <mergeCell ref="CB5:CE5"/>
+    <mergeCell ref="CF5:CJ5"/>
+    <mergeCell ref="CB4:CJ4"/>
+    <mergeCell ref="BW3:CJ3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH9:AH1000001 CQ9:CQ1000001 BP9:BP1000001" xr:uid="{00000000-0002-0000-0500-000008000000}">
@@ -47298,6 +48227,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="E3:R3"/>
     <mergeCell ref="AP4:AT4"/>
     <mergeCell ref="AO3:AU3"/>
     <mergeCell ref="AA2:AU2"/>
@@ -47308,11 +48242,6 @@
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E4:I4"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="E3:R3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y9:Y1000001 AU9:AU1000001" xr:uid="{00000000-0002-0000-0600-000002000000}">
@@ -48081,6 +49010,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="W3:Z3"/>
     <mergeCell ref="AW3:AX3"/>
     <mergeCell ref="AY3:AZ3"/>
     <mergeCell ref="AV2:BC2"/>
@@ -48090,17 +49030,6 @@
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW7:AW1000001 AU7:AU1000001 AF7:AG1000001" xr:uid="{00000000-0002-0000-0700-000000000000}">

--- a/tests/data/filled_templates/bodem_template_full.xlsx
+++ b/tests/data/filled_templates/bodem_template_full.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RubenVijverman\PycharmProjects\xls2xml\tests\data\filled_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArneDegrave\PycharmProjects\xls2xml\tests\data\filled_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C9B901-CDC7-4033-A7E0-E4DC4974FA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD92B571-A023-4016-9188-E8BA334DA6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codelijsten" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12073" uniqueCount="2351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12130" uniqueCount="2377">
   <si>
     <t>naam</t>
   </si>
@@ -7080,6 +7080,84 @@
   </si>
   <si>
     <t>https://www.dov.vlaanderen.be/data/bodemobservatie/2019-000894</t>
+  </si>
+  <si>
+    <t>2018-000082</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/bodemopbouw/2018-000082</t>
+  </si>
+  <si>
+    <t>Vanierschot</t>
+  </si>
+  <si>
+    <t>Langohr</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>KULeuven</t>
+  </si>
+  <si>
+    <t>ASDIS</t>
+  </si>
+  <si>
+    <t>ASDIS_1</t>
+  </si>
+  <si>
+    <t>humus aangerijkte oppervlaktehorizont</t>
+  </si>
+  <si>
+    <t>bleke uitlogingshorizont</t>
+  </si>
+  <si>
+    <t>Ah</t>
+  </si>
+  <si>
+    <t>2018-000336</t>
+  </si>
+  <si>
+    <t>2018-000337</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/bodemdiepteinterval/2018-000336</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/bodemdiepteinterval/2018-000337</t>
+  </si>
+  <si>
+    <t>Zag</t>
+  </si>
+  <si>
+    <t>2018-000060</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/belgischebodemclassificatie/2018-000060</t>
+  </si>
+  <si>
+    <t>Podzol</t>
+  </si>
+  <si>
+    <t>Albic Podzol (Arenic, Dystric)</t>
+  </si>
+  <si>
+    <t>Albic</t>
+  </si>
+  <si>
+    <t>Arenic</t>
+  </si>
+  <si>
+    <t>Dystric</t>
+  </si>
+  <si>
+    <t>2018-000062</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/wrbbodemclassificatie/2018-000062</t>
   </si>
 </sst>
 </file>
@@ -7199,7 +7277,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -40850,31 +40928,33 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AK1:AR1"/>
+    <mergeCell ref="DO2:DP2"/>
+    <mergeCell ref="DI1:DP1"/>
+    <mergeCell ref="DG2:DH2"/>
+    <mergeCell ref="CW1:DH1"/>
+    <mergeCell ref="DI2:DJ2"/>
+    <mergeCell ref="DK2:DL2"/>
+    <mergeCell ref="DM2:DN2"/>
+    <mergeCell ref="CW2:CX2"/>
+    <mergeCell ref="CY2:CZ2"/>
+    <mergeCell ref="DA2:DB2"/>
+    <mergeCell ref="DC2:DD2"/>
+    <mergeCell ref="DE2:DF2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="BU1:CV1"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="CM2:CN2"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="CC2:CD2"/>
     <mergeCell ref="BM2:BN2"/>
     <mergeCell ref="BO2:BP2"/>
     <mergeCell ref="BQ2:BR2"/>
@@ -40890,33 +40970,31 @@
     <mergeCell ref="AW2:AX2"/>
     <mergeCell ref="AY2:AZ2"/>
     <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="CS2:CT2"/>
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="BU1:CV1"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="CM2:CN2"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="DO2:DP2"/>
-    <mergeCell ref="DI1:DP1"/>
-    <mergeCell ref="DG2:DH2"/>
-    <mergeCell ref="CW1:DH1"/>
-    <mergeCell ref="DI2:DJ2"/>
-    <mergeCell ref="DK2:DL2"/>
-    <mergeCell ref="DM2:DN2"/>
-    <mergeCell ref="CW2:CX2"/>
-    <mergeCell ref="CY2:CZ2"/>
-    <mergeCell ref="DA2:DB2"/>
-    <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="DE2:DF2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AK1:AR1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="60">
@@ -42977,26 +43055,21 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="I5:Q5"/>
-    <mergeCell ref="E4:Q4"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="U5:AC5"/>
-    <mergeCell ref="R4:AD4"/>
-    <mergeCell ref="AJ7:AL7"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AI5:AQ5"/>
-    <mergeCell ref="AE4:AQ4"/>
-    <mergeCell ref="AV7:AX7"/>
-    <mergeCell ref="AU6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="AU5:BC5"/>
-    <mergeCell ref="AR4:BD4"/>
+    <mergeCell ref="CW3:DA3"/>
+    <mergeCell ref="CV2:DB2"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="DD2:DK2"/>
+    <mergeCell ref="CN5:CP5"/>
+    <mergeCell ref="CM4:CP4"/>
+    <mergeCell ref="CQ4:CU4"/>
+    <mergeCell ref="CM3:CU3"/>
+    <mergeCell ref="CH2:CU2"/>
+    <mergeCell ref="CA4:CE4"/>
+    <mergeCell ref="BW3:CE3"/>
+    <mergeCell ref="BR2:CE2"/>
+    <mergeCell ref="CF2:CG2"/>
+    <mergeCell ref="CH3:CL3"/>
     <mergeCell ref="E2:BJ2"/>
     <mergeCell ref="BK2:BL2"/>
     <mergeCell ref="BO2:BP2"/>
@@ -43005,21 +43078,26 @@
     <mergeCell ref="BW4:BZ4"/>
     <mergeCell ref="E3:AD3"/>
     <mergeCell ref="AE3:BD3"/>
-    <mergeCell ref="CA4:CE4"/>
-    <mergeCell ref="BW3:CE3"/>
-    <mergeCell ref="BR2:CE2"/>
-    <mergeCell ref="CF2:CG2"/>
-    <mergeCell ref="CH3:CL3"/>
-    <mergeCell ref="CN5:CP5"/>
-    <mergeCell ref="CM4:CP4"/>
-    <mergeCell ref="CQ4:CU4"/>
-    <mergeCell ref="CM3:CU3"/>
-    <mergeCell ref="CH2:CU2"/>
-    <mergeCell ref="CW3:DA3"/>
-    <mergeCell ref="CV2:DB2"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DD2:DK2"/>
+    <mergeCell ref="AV7:AX7"/>
+    <mergeCell ref="AU6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="AU5:BC5"/>
+    <mergeCell ref="AR4:BD4"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AI5:AQ5"/>
+    <mergeCell ref="AE4:AQ4"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="U5:AC5"/>
+    <mergeCell ref="R4:AD4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="E4:Q4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD10:AD1000001 DE10:DE1000001 DB10:DB1000001 BM12:BM1000001 BD10:BD1000001 C10:C11 BM10 C13 C15:C1000001" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -43842,11 +43920,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="O4:R4"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AJ3"/>
     <mergeCell ref="AF2:AM2"/>
@@ -43855,6 +43928,11 @@
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="Y3:AC3"/>
     <mergeCell ref="X2:AD2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="O4:R4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001 AD8:AD1000001 D8:E1000001" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -44689,17 +44767,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="Z4:AH4"/>
     <mergeCell ref="AY3:AZ3"/>
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="AX2:BE2"/>
@@ -44708,6 +44775,17 @@
     <mergeCell ref="Z2:AN2"/>
     <mergeCell ref="AQ3:AU3"/>
     <mergeCell ref="AP2:AV2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B1000001 AY9:AY1000001 AV9:AV1000001 AN9:AN1000001" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -45947,17 +46025,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="F2:P2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AG2:AM2"/>
+    <mergeCell ref="BJ2:BW2"/>
+    <mergeCell ref="BJ3:BN3"/>
+    <mergeCell ref="BP5:BR5"/>
+    <mergeCell ref="BO4:BR4"/>
+    <mergeCell ref="BS4:BW4"/>
+    <mergeCell ref="BO3:BW3"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AU3:AW3"/>
     <mergeCell ref="AZ5:BA5"/>
@@ -45966,12 +46039,17 @@
     <mergeCell ref="AZ4:BG4"/>
     <mergeCell ref="AX3:BI3"/>
     <mergeCell ref="AU2:BI2"/>
-    <mergeCell ref="BJ2:BW2"/>
-    <mergeCell ref="BJ3:BN3"/>
-    <mergeCell ref="BP5:BR5"/>
-    <mergeCell ref="BO4:BR4"/>
-    <mergeCell ref="BS4:BW4"/>
-    <mergeCell ref="BO3:BW3"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AG2:AM2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="F2:P2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E1000001 AS9:AS1000001 AM9:AM1000001" xr:uid="{00000000-0002-0000-0400-000002000000}">
@@ -46090,10 +46168,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:CQ8"/>
+  <dimension ref="A1:CQ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BA14" sqref="BA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46192,7 +46270,7 @@
     <col min="95" max="95" width="70.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1543</v>
       </c>
@@ -46479,7 +46557,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="2" spans="1:95" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>322</v>
       </c>
@@ -46584,7 +46662,7 @@
       <c r="CP2" s="8"/>
       <c r="CQ2" s="8"/>
     </row>
-    <row r="3" spans="1:95" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -46723,7 +46801,7 @@
       <c r="CP3" s="8"/>
       <c r="CQ3" s="8"/>
     </row>
-    <row r="4" spans="1:95" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>1560</v>
       </c>
@@ -46867,7 +46945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:95" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1545</v>
       </c>
@@ -47035,7 +47113,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:95" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:95" x14ac:dyDescent="0.3">
       <c r="S6" s="5" t="s">
         <v>0</v>
       </c>
@@ -47112,7 +47190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:95" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:95" x14ac:dyDescent="0.3">
       <c r="T7" s="5" t="s">
         <v>14</v>
       </c>
@@ -47428,16 +47506,139 @@
         <v>1660</v>
       </c>
     </row>
+    <row r="9" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2367</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2368</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2369</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2353</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2355</v>
+      </c>
+      <c r="S9" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>1821</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>1833</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>2370</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>2371</v>
+      </c>
+      <c r="AN9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>1890</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>2372</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>2103</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>2375</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>2376</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>2353</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>2355</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>2354</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2356</v>
+      </c>
+      <c r="S10" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>1900</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>2373</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>2106</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>2354</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>2356</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="AO11" t="s">
+        <v>1929</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>2374</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>2106</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="B2:AH2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="CL4:CP4"/>
+    <mergeCell ref="CK3:CQ3"/>
+    <mergeCell ref="BQ2:CQ2"/>
+    <mergeCell ref="CC6:CE6"/>
+    <mergeCell ref="CB5:CE5"/>
+    <mergeCell ref="CF5:CJ5"/>
+    <mergeCell ref="CB4:CJ4"/>
+    <mergeCell ref="BW3:CJ3"/>
+    <mergeCell ref="BK4:BO4"/>
+    <mergeCell ref="BJ3:BP3"/>
+    <mergeCell ref="AI2:BP2"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV4:AZ4"/>
+    <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="BA5:BD5"/>
+    <mergeCell ref="BE5:BI5"/>
+    <mergeCell ref="BA4:BI4"/>
+    <mergeCell ref="AV3:BI3"/>
     <mergeCell ref="AO5:AP5"/>
     <mergeCell ref="AO4:AQ4"/>
     <mergeCell ref="AO3:AR3"/>
@@ -47447,26 +47648,14 @@
     <mergeCell ref="AC4:AG4"/>
     <mergeCell ref="AB3:AH3"/>
     <mergeCell ref="N4:R4"/>
-    <mergeCell ref="BB6:BD6"/>
-    <mergeCell ref="BA5:BD5"/>
-    <mergeCell ref="BE5:BI5"/>
-    <mergeCell ref="BA4:BI4"/>
-    <mergeCell ref="AV3:BI3"/>
-    <mergeCell ref="BK4:BO4"/>
-    <mergeCell ref="BJ3:BP3"/>
-    <mergeCell ref="AI2:BP2"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV4:AZ4"/>
-    <mergeCell ref="CL4:CP4"/>
-    <mergeCell ref="CK3:CQ3"/>
-    <mergeCell ref="BQ2:CQ2"/>
-    <mergeCell ref="CC6:CE6"/>
-    <mergeCell ref="CB5:CE5"/>
-    <mergeCell ref="CF5:CJ5"/>
-    <mergeCell ref="CB4:CJ4"/>
-    <mergeCell ref="BW3:CJ3"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="B2:AH2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH9:AH1000001 CQ9:CQ1000001 BP9:BP1000001" xr:uid="{00000000-0002-0000-0500-000008000000}">
@@ -47585,9 +47774,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AU8"/>
+  <dimension ref="A1:AU10"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -47637,7 +47828,7 @@
     <col min="47" max="47" width="60.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2124</v>
       </c>
@@ -47780,7 +47971,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="2" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>2149</v>
       </c>
@@ -47835,7 +48026,7 @@
       <c r="AT2" s="8"/>
       <c r="AU2" s="8"/>
     </row>
-    <row r="3" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -47922,7 +48113,7 @@
       <c r="AT3" s="8"/>
       <c r="AU3" s="8"/>
     </row>
-    <row r="4" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>91</v>
       </c>
@@ -47986,7 +48177,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
@@ -48046,7 +48237,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="J6" s="5" t="s">
         <v>0</v>
       </c>
@@ -48071,7 +48262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="K7" s="5" t="s">
         <v>14</v>
       </c>
@@ -48225,13 +48416,87 @@
         <v>2177</v>
       </c>
     </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2355</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2357</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>2359</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>2179</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>2360</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>2362</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>2363</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>2354</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2356</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>2179</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>2361</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>1668</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>2364</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>2366</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="E3:R3"/>
     <mergeCell ref="AP4:AT4"/>
     <mergeCell ref="AO3:AU3"/>
     <mergeCell ref="AA2:AU2"/>
@@ -48242,6 +48507,11 @@
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E4:I4"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="E3:R3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y9:Y1000001 AU9:AU1000001" xr:uid="{00000000-0002-0000-0600-000002000000}">
@@ -49010,17 +49280,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="W3:Z3"/>
     <mergeCell ref="AW3:AX3"/>
     <mergeCell ref="AY3:AZ3"/>
     <mergeCell ref="AV2:BC2"/>
@@ -49030,6 +49289,17 @@
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW7:AW1000001 AU7:AU1000001 AF7:AG1000001" xr:uid="{00000000-0002-0000-0700-000000000000}">

--- a/tests/data/filled_templates/bodem_template_full.xlsx
+++ b/tests/data/filled_templates/bodem_template_full.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArneDegrave\PycharmProjects\xls2xml\tests\data\filled_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RubenVijverman\PycharmProjects\xls2xml\tests\data\filled_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD92B571-A023-4016-9188-E8BA334DA6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6F10A4-856C-4FB9-A0F5-383461C93703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codelijsten" sheetId="1" r:id="rId1"/>
@@ -7130,9 +7130,6 @@
     <t>https://www.dov.vlaanderen.be/data/bodemdiepteinterval/2018-000337</t>
   </si>
   <si>
-    <t>Zag</t>
-  </si>
-  <si>
     <t>2018-000060</t>
   </si>
   <si>
@@ -7158,6 +7155,9 @@
   </si>
   <si>
     <t>https://www.dov.vlaanderen.be/data/wrbbodemclassificatie/2018-000062</t>
+  </si>
+  <si>
+    <t>ZAg</t>
   </si>
 </sst>
 </file>
@@ -7277,7 +7277,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -40928,18 +40928,46 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="DO2:DP2"/>
-    <mergeCell ref="DI1:DP1"/>
-    <mergeCell ref="DG2:DH2"/>
-    <mergeCell ref="CW1:DH1"/>
-    <mergeCell ref="DI2:DJ2"/>
-    <mergeCell ref="DK2:DL2"/>
-    <mergeCell ref="DM2:DN2"/>
-    <mergeCell ref="CW2:CX2"/>
-    <mergeCell ref="CY2:CZ2"/>
-    <mergeCell ref="DA2:DB2"/>
-    <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="DE2:DF2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AK1:AR1"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="AS1:BT1"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
     <mergeCell ref="CO2:CP2"/>
     <mergeCell ref="CQ2:CR2"/>
     <mergeCell ref="CS2:CT2"/>
@@ -40955,46 +40983,18 @@
     <mergeCell ref="BY2:BZ2"/>
     <mergeCell ref="CA2:CB2"/>
     <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="AS1:BT1"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AK1:AR1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="DO2:DP2"/>
+    <mergeCell ref="DI1:DP1"/>
+    <mergeCell ref="DG2:DH2"/>
+    <mergeCell ref="CW1:DH1"/>
+    <mergeCell ref="DI2:DJ2"/>
+    <mergeCell ref="DK2:DL2"/>
+    <mergeCell ref="DM2:DN2"/>
+    <mergeCell ref="CW2:CX2"/>
+    <mergeCell ref="CY2:CZ2"/>
+    <mergeCell ref="DA2:DB2"/>
+    <mergeCell ref="DC2:DD2"/>
+    <mergeCell ref="DE2:DF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="60">
@@ -43055,21 +43055,26 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="CW3:DA3"/>
-    <mergeCell ref="CV2:DB2"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DD2:DK2"/>
-    <mergeCell ref="CN5:CP5"/>
-    <mergeCell ref="CM4:CP4"/>
-    <mergeCell ref="CQ4:CU4"/>
-    <mergeCell ref="CM3:CU3"/>
-    <mergeCell ref="CH2:CU2"/>
-    <mergeCell ref="CA4:CE4"/>
-    <mergeCell ref="BW3:CE3"/>
-    <mergeCell ref="BR2:CE2"/>
-    <mergeCell ref="CF2:CG2"/>
-    <mergeCell ref="CH3:CL3"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="U5:AC5"/>
+    <mergeCell ref="R4:AD4"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AI5:AQ5"/>
+    <mergeCell ref="AE4:AQ4"/>
+    <mergeCell ref="AV7:AX7"/>
+    <mergeCell ref="AU6:AX6"/>
+    <mergeCell ref="AY6:BC6"/>
+    <mergeCell ref="AU5:BC5"/>
+    <mergeCell ref="AR4:BD4"/>
     <mergeCell ref="E2:BJ2"/>
     <mergeCell ref="BK2:BL2"/>
     <mergeCell ref="BO2:BP2"/>
@@ -43078,26 +43083,21 @@
     <mergeCell ref="BW4:BZ4"/>
     <mergeCell ref="E3:AD3"/>
     <mergeCell ref="AE3:BD3"/>
-    <mergeCell ref="AV7:AX7"/>
-    <mergeCell ref="AU6:AX6"/>
-    <mergeCell ref="AY6:BC6"/>
-    <mergeCell ref="AU5:BC5"/>
-    <mergeCell ref="AR4:BD4"/>
-    <mergeCell ref="AJ7:AL7"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AI5:AQ5"/>
-    <mergeCell ref="AE4:AQ4"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="U5:AC5"/>
-    <mergeCell ref="R4:AD4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="I5:Q5"/>
-    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="CA4:CE4"/>
+    <mergeCell ref="BW3:CE3"/>
+    <mergeCell ref="BR2:CE2"/>
+    <mergeCell ref="CF2:CG2"/>
+    <mergeCell ref="CH3:CL3"/>
+    <mergeCell ref="CN5:CP5"/>
+    <mergeCell ref="CM4:CP4"/>
+    <mergeCell ref="CQ4:CU4"/>
+    <mergeCell ref="CM3:CU3"/>
+    <mergeCell ref="CH2:CU2"/>
+    <mergeCell ref="CW3:DA3"/>
+    <mergeCell ref="CV2:DB2"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="DD2:DK2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD10:AD1000001 DE10:DE1000001 DB10:DB1000001 BM12:BM1000001 BD10:BD1000001 C10:C11 BM10 C13 C15:C1000001" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -43920,6 +43920,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="O4:R4"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AJ3"/>
     <mergeCell ref="AF2:AM2"/>
@@ -43928,11 +43933,6 @@
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="Y3:AC3"/>
     <mergeCell ref="X2:AD2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="O4:R4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001 AD8:AD1000001 D8:E1000001" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -44767,6 +44767,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="Z4:AH4"/>
     <mergeCell ref="AY3:AZ3"/>
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="AX2:BE2"/>
@@ -44775,17 +44786,6 @@
     <mergeCell ref="Z2:AN2"/>
     <mergeCell ref="AQ3:AU3"/>
     <mergeCell ref="AP2:AV2"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B1000001 AY9:AY1000001 AV9:AV1000001 AN9:AN1000001" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -46025,12 +46025,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="BJ2:BW2"/>
-    <mergeCell ref="BJ3:BN3"/>
-    <mergeCell ref="BP5:BR5"/>
-    <mergeCell ref="BO4:BR4"/>
-    <mergeCell ref="BS4:BW4"/>
-    <mergeCell ref="BO3:BW3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="F2:P2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AG2:AM2"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AU3:AW3"/>
     <mergeCell ref="AZ5:BA5"/>
@@ -46039,17 +46044,12 @@
     <mergeCell ref="AZ4:BG4"/>
     <mergeCell ref="AX3:BI3"/>
     <mergeCell ref="AU2:BI2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AG2:AM2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="F2:P2"/>
+    <mergeCell ref="BJ2:BW2"/>
+    <mergeCell ref="BJ3:BN3"/>
+    <mergeCell ref="BP5:BR5"/>
+    <mergeCell ref="BO4:BR4"/>
+    <mergeCell ref="BS4:BW4"/>
+    <mergeCell ref="BO3:BW3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E1000001 AS9:AS1000001 AM9:AM1000001" xr:uid="{00000000-0002-0000-0400-000002000000}">
@@ -46170,8 +46170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CQ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BA14" sqref="BA14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47514,7 +47514,7 @@
         <v>1688</v>
       </c>
       <c r="C9" t="s">
-        <v>2367</v>
+        <v>2376</v>
       </c>
       <c r="E9" t="s">
         <v>1738</v>
@@ -47523,10 +47523,10 @@
         <v>1393</v>
       </c>
       <c r="L9" t="s">
+        <v>2367</v>
+      </c>
+      <c r="M9" t="s">
         <v>2368</v>
-      </c>
-      <c r="M9" t="s">
-        <v>2369</v>
       </c>
       <c r="N9" t="s">
         <v>2353</v>
@@ -47544,10 +47544,10 @@
         <v>1833</v>
       </c>
       <c r="AK9" t="s">
+        <v>2369</v>
+      </c>
+      <c r="AM9" t="s">
         <v>2370</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>2371</v>
       </c>
       <c r="AN9" t="b">
         <v>0</v>
@@ -47556,16 +47556,16 @@
         <v>1890</v>
       </c>
       <c r="AP9" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="AR9" t="s">
         <v>2103</v>
       </c>
       <c r="AT9" t="s">
+        <v>2374</v>
+      </c>
+      <c r="AU9" t="s">
         <v>2375</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>2376</v>
       </c>
       <c r="AV9" t="s">
         <v>2353</v>
@@ -47591,7 +47591,7 @@
         <v>1900</v>
       </c>
       <c r="AP10" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="AR10" t="s">
         <v>2106</v>
@@ -47611,7 +47611,7 @@
         <v>1929</v>
       </c>
       <c r="AP11" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="AR11" t="s">
         <v>2106</v>
@@ -47619,26 +47619,14 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="CL4:CP4"/>
-    <mergeCell ref="CK3:CQ3"/>
-    <mergeCell ref="BQ2:CQ2"/>
-    <mergeCell ref="CC6:CE6"/>
-    <mergeCell ref="CB5:CE5"/>
-    <mergeCell ref="CF5:CJ5"/>
-    <mergeCell ref="CB4:CJ4"/>
-    <mergeCell ref="BW3:CJ3"/>
-    <mergeCell ref="BK4:BO4"/>
-    <mergeCell ref="BJ3:BP3"/>
-    <mergeCell ref="AI2:BP2"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV4:AZ4"/>
-    <mergeCell ref="BB6:BD6"/>
-    <mergeCell ref="BA5:BD5"/>
-    <mergeCell ref="BE5:BI5"/>
-    <mergeCell ref="BA4:BI4"/>
-    <mergeCell ref="AV3:BI3"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="B2:AH2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="AO5:AP5"/>
     <mergeCell ref="AO4:AQ4"/>
     <mergeCell ref="AO3:AR3"/>
@@ -47648,14 +47636,26 @@
     <mergeCell ref="AC4:AG4"/>
     <mergeCell ref="AB3:AH3"/>
     <mergeCell ref="N4:R4"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="B2:AH2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="BA5:BD5"/>
+    <mergeCell ref="BE5:BI5"/>
+    <mergeCell ref="BA4:BI4"/>
+    <mergeCell ref="AV3:BI3"/>
+    <mergeCell ref="BK4:BO4"/>
+    <mergeCell ref="BJ3:BP3"/>
+    <mergeCell ref="AI2:BP2"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV4:AZ4"/>
+    <mergeCell ref="CL4:CP4"/>
+    <mergeCell ref="CK3:CQ3"/>
+    <mergeCell ref="BQ2:CQ2"/>
+    <mergeCell ref="CC6:CE6"/>
+    <mergeCell ref="CB5:CE5"/>
+    <mergeCell ref="CF5:CJ5"/>
+    <mergeCell ref="CB4:CJ4"/>
+    <mergeCell ref="BW3:CJ3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH9:AH1000001 CQ9:CQ1000001 BP9:BP1000001" xr:uid="{00000000-0002-0000-0500-000008000000}">
@@ -47776,8 +47776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AU10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48497,6 +48497,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="E3:R3"/>
     <mergeCell ref="AP4:AT4"/>
     <mergeCell ref="AO3:AU3"/>
     <mergeCell ref="AA2:AU2"/>
@@ -48507,11 +48512,6 @@
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E4:I4"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="E3:R3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y9:Y1000001 AU9:AU1000001" xr:uid="{00000000-0002-0000-0600-000002000000}">
@@ -49280,6 +49280,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="W3:Z3"/>
     <mergeCell ref="AW3:AX3"/>
     <mergeCell ref="AY3:AZ3"/>
     <mergeCell ref="AV2:BC2"/>
@@ -49289,17 +49300,6 @@
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW7:AW1000001 AU7:AU1000001 AF7:AG1000001" xr:uid="{00000000-0002-0000-0700-000000000000}">
